--- a/biology/Botanique/Maria_Lisa/Maria_Lisa.xlsx
+++ b/biology/Botanique/Maria_Lisa/Maria_Lisa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-‘Maria Lisa’ est un cultivar de rosier-liane obtenu en 1925 par le frère augustin Alfons Brümmer[1] et donné parmi d'autres variétés à l'Europa-Rosarium de Sangerhausen pour examen. En 1936, le rosier 'Maria Lisa' a été mis sur le marché par Liebau. Il porte aussi le nom de 'Maria Liesa'. Maria et Liesa étaient deux femmes qui travaillaient au couvent de frère Alfons à Germershausen (en Basse-Saxe)[2].
+‘Maria Lisa’ est un cultivar de rosier-liane obtenu en 1925 par le frère augustin Alfons Brümmer et donné parmi d'autres variétés à l'Europa-Rosarium de Sangerhausen pour examen. En 1936, le rosier 'Maria Lisa' a été mis sur le marché par Liebau. Il porte aussi le nom de 'Maria Liesa'. Maria et Liesa étaient deux femmes qui travaillaient au couvent de frère Alfons à Germershausen (en Basse-Saxe).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">‘Maria Lisa’ fleurit en juin-juillet de manière extrêmement généreuse. Ses innombrables petites fleurs semi-doubles (4-8 pétales) peu parfumées[2] de 3 cm de diamètre sont rose foncé ou rouge cerise au cœur blanc, fleurissant en bouquets de vingt à soixante fleurs qui attirent les abeilles. En automne, de nombreux cynorhodons rouge corail se forment. En tant que rosier grimpant, il peut atteindre 4 m de haut s'il est palissé, s'il grimpe dans un arbre ou s'il couvre un mur. Son feuillage est sombre et mat[3]. Ses rameaux sont presque inermes[4]. Il accepte la mi-ombre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">‘Maria Lisa’ fleurit en juin-juillet de manière extrêmement généreuse. Ses innombrables petites fleurs semi-doubles (4-8 pétales) peu parfumées de 3 cm de diamètre sont rose foncé ou rouge cerise au cœur blanc, fleurissant en bouquets de vingt à soixante fleurs qui attirent les abeilles. En automne, de nombreux cynorhodons rouge corail se forment. En tant que rosier grimpant, il peut atteindre 4 m de haut s'il est palissé, s'il grimpe dans un arbre ou s'il couvre un mur. Son feuillage est sombre et mat. Ses rameaux sont presque inermes. Il accepte la mi-ombre.
 Ce cultivar fort robuste et à la croissance rapide est fameux pour sa résistance au froid jusqu'à - 29° (zone de rusticité 5b). Il remporte depuis près d'un siècle un grand succès dans les pays nordiques, en Allemagne, aux États-Unis et au Canada et depuis une vingtaine d'années en Russie et en Europe de l'Est. Il est très présent aussi au Royaume-Uni et fort apprécié ailleurs.
 On peut l'admirer à la roseraie de Schiltigheim en Alsace.
 </t>
